--- a/biology/Zoologie/Anebodon/Anebodon.xlsx
+++ b/biology/Zoologie/Anebodon/Anebodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anebodon luoi
-Anebodon est un genre éteint de petits mammifères primitifs de l'ordre des symmétrodontes[1],[2] et de la famille des Zhangheotheriidae[1].
-Le seul fossile connu d’Anebodon est composé d'un crâne partiel et de ses mandibules avec une denture presque complète[1]. Comme la quasi-totalité des fossiles de Zhangheotheriidae il a été découvert dans le Crétacé inférieur (Aptien) de la formation géologique d'Yixian en Chine, dans la province de Liaoning.
-Cet unique fossile a été nommé Anebodon luoi par Shundong Bi (d) et al. en 2016[1].
+Anebodon est un genre éteint de petits mammifères primitifs de l'ordre des symmétrodontes, et de la famille des Zhangheotheriidae.
+Le seul fossile connu d’Anebodon est composé d'un crâne partiel et de ses mandibules avec une denture presque complète. Comme la quasi-totalité des fossiles de Zhangheotheriidae il a été découvert dans le Crétacé inférieur (Aptien) de la formation géologique d'Yixian en Chine, dans la province de Liaoning.
+Cet unique fossile a été nommé Anebodon luoi par Shundong Bi (d) et al. en 2016.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le crâne de l'animal mesure environ 4 centimètres de long. Le nombre de dents chez Anebodon est sensiblement moindre que chez les Zhangheotheriidae plus évolués (Zhangheotherium et Maotherium). Il partage par contre la même formule dentaire post-canine que le genre Kiyatherium[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le crâne de l'animal mesure environ 4 centimètres de long. Le nombre de dents chez Anebodon est sensiblement moindre que chez les Zhangheotheriidae plus évolués (Zhangheotherium et Maotherium). Il partage par contre la même formule dentaire post-canine que le genre Kiyatherium.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors de la description du genre en 2016, Bi et al. ont établi le cladogramme suivant, limité aux Zhangheotheriidae[1]. 
-Anebodon apparaît en position basale parmi les Zhangheotheriidae, où il se place en groupe frère avec le genre Kiyatherium[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de la description du genre en 2016, Bi et al. ont établi le cladogramme suivant, limité aux Zhangheotheriidae. 
+Anebodon apparaît en position basale parmi les Zhangheotheriidae, où il se place en groupe frère avec le genre Kiyatherium :
 </t>
         </is>
       </c>
